--- a/1999/burglary-1999.xlsx
+++ b/1999/burglary-1999.xlsx
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Victim Age, Gender and Race</t>
-  </si>
-  <si>
     <t>Race</t>
   </si>
   <si>
@@ -64,10 +61,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Offender Age, Gender and Race</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Race</t>
@@ -112,7 +106,58 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Type Security of Structure</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Alarm/Audio</t>
+  </si>
+  <si>
+    <t>Alarm/Silent</t>
+  </si>
+  <si>
+    <t>Bars/Grate</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Dead Bolt</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Unlocked</t>
+  </si>
+  <si>
+    <t>Exterior Lights</t>
+  </si>
+  <si>
+    <t>Interior Lights</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Neighborhood Watch</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Point of Entry/Exit During Burglary</t>
@@ -175,154 +220,103 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Type Security of Structure</t>
+    <t>Day/Time</t>
+  </si>
+  <si>
+    <t>00:00-01:59</t>
+  </si>
+  <si>
+    <t>How Suspect Left Scene</t>
+  </si>
+  <si>
+    <t>02:00-03:59</t>
+  </si>
+  <si>
+    <t>04:00-05:59</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Alarm/Audio</t>
-  </si>
-  <si>
-    <t>Alarm/Silent</t>
-  </si>
-  <si>
-    <t>Bars/Grate</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Dead Bolt</t>
-  </si>
-  <si>
-    <t>Locked</t>
-  </si>
-  <si>
-    <t>Unlocked</t>
-  </si>
-  <si>
-    <t>Exterior Lights</t>
-  </si>
-  <si>
-    <t>Interior Lights</t>
-  </si>
-  <si>
-    <t>Fence</t>
-  </si>
-  <si>
-    <t>Guard</t>
-  </si>
-  <si>
-    <t>Neighborhood Watch</t>
+    <t>Resident Status of Victim</t>
+  </si>
+  <si>
+    <t>06:00-07:59</t>
+  </si>
+  <si>
+    <t>08:00-09:59</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>10:00-11:59</t>
+  </si>
+  <si>
+    <t>12:00-13:59</t>
+  </si>
+  <si>
+    <t>14:00-15:59</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>16:00-17:59</t>
+  </si>
+  <si>
+    <t>18:00-19:59</t>
+  </si>
+  <si>
+    <t>20:00-21:59</t>
+  </si>
+  <si>
+    <t>22:00-23:59</t>
+  </si>
+  <si>
+    <t>Unk</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Nonresident</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Total Victims</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Moped</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Resident Status of Victim</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Resident</t>
-  </si>
-  <si>
-    <t>Nonresident</t>
-  </si>
-  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>Total Victims</t>
-  </si>
-  <si>
-    <t>How Suspect Left Scene</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Bicycle</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Moped</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Day/Time</t>
-  </si>
-  <si>
-    <t>00:00-01:59</t>
-  </si>
-  <si>
-    <t>02:00-03:59</t>
-  </si>
-  <si>
-    <t>04:00-05:59</t>
-  </si>
-  <si>
-    <t>06:00-07:59</t>
-  </si>
-  <si>
-    <t>08:00-09:59</t>
-  </si>
-  <si>
-    <t>10:00-11:59</t>
-  </si>
-  <si>
-    <t>12:00-13:59</t>
-  </si>
-  <si>
-    <t>14:00-15:59</t>
-  </si>
-  <si>
-    <t>16:00-17:59</t>
-  </si>
-  <si>
-    <t>18:00-19:59</t>
-  </si>
-  <si>
-    <t>20:00-21:59</t>
-  </si>
-  <si>
-    <t>22:00-23:59</t>
-  </si>
-  <si>
-    <t>Unk</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -406,31 +400,31 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -445,39 +439,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
-      </c>
-      <c t="s" s="1" r="E2">
+      <c t="s" s="2" r="B2">
         <v>3</v>
       </c>
+      <c t="s" s="2" r="C2">
+        <v>4</v>
+      </c>
+      <c t="s" s="2" r="D2">
+        <v>5</v>
+      </c>
+      <c t="s" s="2" r="E2">
+        <v>6</v>
+      </c>
+      <c t="s" s="2" r="F2">
+        <v>7</v>
+      </c>
+      <c t="s" s="2" r="G2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
-      <c t="s" s="2" r="B3">
-        <v>4</v>
-      </c>
-      <c t="s" s="2" r="C3">
-        <v>5</v>
-      </c>
-      <c t="s" s="2" r="D3">
-        <v>6</v>
-      </c>
-      <c t="s" s="2" r="E3">
-        <v>7</v>
-      </c>
-      <c t="s" s="2" r="F3">
-        <v>8</v>
-      </c>
-      <c t="s" s="2" r="G3">
+      <c t="s" s="3" r="A3">
         <v>9</v>
+      </c>
+      <c s="4" r="B3">
+        <v>266.0</v>
+      </c>
+      <c s="4" r="C3">
+        <v>1900.0</v>
+      </c>
+      <c s="4" r="D3">
+        <v>3423.0</v>
+      </c>
+      <c s="4" r="E3">
+        <v>179.0</v>
+      </c>
+      <c s="4" r="F3">
+        <v>1597.0</v>
+      </c>
+      <c s="4" r="G3">
+        <v>2187.0</v>
       </c>
     </row>
     <row r="4">
@@ -485,22 +497,22 @@
         <v>10</v>
       </c>
       <c s="4" r="B4">
-        <v>266.0</v>
+        <v>90.0</v>
       </c>
       <c s="4" r="C4">
-        <v>1900.0</v>
+        <v>769.0</v>
       </c>
       <c s="4" r="D4">
-        <v>3423.0</v>
+        <v>908.0</v>
       </c>
       <c s="4" r="E4">
-        <v>179.0</v>
+        <v>85.0</v>
       </c>
       <c s="4" r="F4">
-        <v>1597.0</v>
+        <v>1141.0</v>
       </c>
       <c s="4" r="G4">
-        <v>2187.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="5">
@@ -508,22 +520,22 @@
         <v>11</v>
       </c>
       <c s="4" r="B5">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c s="4" r="C5">
-        <v>769.0</v>
+        <v>3.0</v>
       </c>
       <c s="4" r="D5">
-        <v>908.0</v>
+        <v>3.0</v>
       </c>
       <c s="4" r="E5">
-        <v>85.0</v>
+        <v>1.0</v>
       </c>
       <c s="4" r="F5">
-        <v>1141.0</v>
+        <v>4.0</v>
       </c>
       <c s="4" r="G5">
-        <v>977.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -531,22 +543,22 @@
         <v>12</v>
       </c>
       <c s="4" r="B6">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="4" r="C6">
+        <v>33.0</v>
+      </c>
+      <c s="4" r="D6">
+        <v>41.0</v>
+      </c>
+      <c s="4" r="E6">
         <v>3.0</v>
       </c>
-      <c s="4" r="D6">
-        <v>3.0</v>
-      </c>
-      <c s="4" r="E6">
-        <v>1.0</v>
-      </c>
       <c s="4" r="F6">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c s="4" r="G6">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
@@ -554,69 +566,55 @@
         <v>13</v>
       </c>
       <c s="4" r="B7">
-        <v>5.0</v>
+        <v>42.0</v>
       </c>
       <c s="4" r="C7">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c s="4" r="D7">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c s="4" r="E7">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c s="4" r="F7">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c s="4" r="G7">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
-      <c t="s" s="3" r="A8">
+      <c t="s" s="2" r="A8">
         <v>14</v>
       </c>
       <c s="4" r="B8">
-        <v>42.0</v>
+        <v>403.0</v>
       </c>
       <c s="4" r="C8">
-        <v>29.0</v>
+        <v>2734.0</v>
       </c>
       <c s="4" r="D8">
-        <v>43.0</v>
+        <v>4418.0</v>
       </c>
       <c s="4" r="E8">
-        <v>24.0</v>
+        <v>292.0</v>
       </c>
       <c s="4" r="F8">
-        <v>22.0</v>
+        <v>2785.0</v>
       </c>
       <c s="4" r="G8">
-        <v>34.0</v>
+        <v>3222.0</v>
       </c>
     </row>
     <row r="9">
-      <c t="s" s="3" r="A9">
-        <v>15</v>
-      </c>
-      <c s="4" r="B9">
-        <v>403.0</v>
-      </c>
-      <c s="4" r="C9">
-        <v>2734.0</v>
-      </c>
-      <c s="4" r="D9">
-        <v>4418.0</v>
-      </c>
-      <c s="4" r="E9">
-        <v>292.0</v>
-      </c>
-      <c s="4" r="F9">
-        <v>2785.0</v>
-      </c>
-      <c s="4" r="G9">
-        <v>3222.0</v>
-      </c>
+      <c s="2" r="A9"/>
+      <c s="5" r="B9"/>
+      <c s="5" r="C9"/>
+      <c s="5" r="D9"/>
+      <c s="5" r="E9"/>
+      <c s="5" r="F9"/>
+      <c s="5" r="G9"/>
     </row>
     <row r="10">
       <c s="2" r="A10"/>
@@ -636,21 +634,11 @@
       <c s="5" r="F11"/>
       <c s="5" r="G11"/>
     </row>
-    <row r="12">
-      <c s="2" r="A12"/>
-      <c s="5" r="B12"/>
-      <c s="5" r="C12"/>
-      <c s="5" r="D12"/>
-      <c s="5" r="E12"/>
-      <c s="5" r="F12"/>
-      <c s="5" r="G12"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -667,105 +655,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="2" r="A1">
+      <c t="s" r="A1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="B1">
         <v>16</v>
       </c>
+      <c t="s" s="1" r="E1">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" r="A2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="B2">
+      <c t="s" s="2" r="B2">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="E2">
+      <c t="s" s="2" r="C2">
         <v>19</v>
       </c>
+      <c t="s" s="2" r="D2">
+        <v>20</v>
+      </c>
+      <c t="s" s="2" r="E2">
+        <v>21</v>
+      </c>
+      <c t="s" s="2" r="F2">
+        <v>22</v>
+      </c>
+      <c t="s" s="2" r="G2">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
-      <c t="s" s="2" r="B3">
-        <v>20</v>
-      </c>
-      <c t="s" s="2" r="C3">
-        <v>21</v>
-      </c>
-      <c t="s" s="2" r="D3">
-        <v>22</v>
-      </c>
-      <c t="s" s="2" r="E3">
-        <v>23</v>
-      </c>
-      <c t="s" s="2" r="F3">
+      <c t="s" s="3" r="A3">
         <v>24</v>
       </c>
-      <c t="s" s="2" r="G3">
-        <v>25</v>
+      <c s="4" r="B3">
+        <v>1431.0</v>
+      </c>
+      <c s="4" r="C3">
+        <v>2242.0</v>
+      </c>
+      <c s="4" r="D3">
+        <v>592.0</v>
+      </c>
+      <c s="4" r="E3">
+        <v>235.0</v>
+      </c>
+      <c s="4" r="F3">
+        <v>415.0</v>
+      </c>
+      <c s="4" r="G3">
+        <v>188.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c s="4" r="B4">
-        <v>1431.0</v>
+        <v>1066.0</v>
       </c>
       <c s="4" r="C4">
-        <v>2242.0</v>
+        <v>1322.0</v>
       </c>
       <c s="4" r="D4">
-        <v>592.0</v>
+        <v>385.0</v>
       </c>
       <c s="4" r="E4">
-        <v>235.0</v>
+        <v>93.0</v>
       </c>
       <c s="4" r="F4">
-        <v>415.0</v>
+        <v>127.0</v>
       </c>
       <c s="4" r="G4">
-        <v>188.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c s="4" r="B5">
-        <v>1066.0</v>
+        <v>2.0</v>
       </c>
       <c s="4" r="C5">
-        <v>1322.0</v>
+        <v>0.0</v>
       </c>
       <c s="4" r="D5">
-        <v>385.0</v>
+        <v>1.0</v>
       </c>
       <c s="4" r="E5">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c s="4" r="F5">
-        <v>127.0</v>
+        <v>0.0</v>
       </c>
       <c s="4" r="G5">
-        <v>58.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="3" r="A6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c s="4" r="B6">
+        <v>21.0</v>
+      </c>
+      <c s="4" r="C6">
+        <v>15.0</v>
+      </c>
+      <c s="4" r="D6">
         <v>2.0</v>
       </c>
-      <c s="4" r="C6">
-        <v>0.0</v>
-      </c>
-      <c s="4" r="D6">
+      <c s="4" r="E6">
         <v>1.0</v>
       </c>
-      <c s="4" r="E6">
-        <v>0.0</v>
-      </c>
       <c s="4" r="F6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="4" r="G6">
         <v>1.0</v>
@@ -773,72 +779,58 @@
     </row>
     <row r="7">
       <c t="s" s="3" r="A7">
+        <v>28</v>
+      </c>
+      <c s="4" r="B7">
+        <v>145.0</v>
+      </c>
+      <c s="4" r="C7">
+        <v>41.0</v>
+      </c>
+      <c s="4" r="D7">
+        <v>13.0</v>
+      </c>
+      <c s="4" r="E7">
+        <v>21.0</v>
+      </c>
+      <c s="4" r="F7">
+        <v>5.0</v>
+      </c>
+      <c s="4" r="G7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
         <v>29</v>
       </c>
-      <c s="4" r="B7">
-        <v>21.0</v>
-      </c>
-      <c s="4" r="C7">
-        <v>15.0</v>
-      </c>
-      <c s="4" r="D7">
-        <v>2.0</v>
-      </c>
-      <c s="4" r="E7">
-        <v>1.0</v>
-      </c>
-      <c s="4" r="F7">
-        <v>1.0</v>
-      </c>
-      <c s="4" r="G7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="3" r="A8">
-        <v>30</v>
-      </c>
       <c s="4" r="B8">
-        <v>145.0</v>
+        <v>2665.0</v>
       </c>
       <c s="4" r="C8">
-        <v>41.0</v>
+        <v>3620.0</v>
       </c>
       <c s="4" r="D8">
-        <v>13.0</v>
+        <v>993.0</v>
       </c>
       <c s="4" r="E8">
-        <v>21.0</v>
+        <v>350.0</v>
       </c>
       <c s="4" r="F8">
-        <v>5.0</v>
+        <v>548.0</v>
       </c>
       <c s="4" r="G8">
-        <v>5.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="9">
-      <c t="s" s="3" r="A9">
-        <v>31</v>
-      </c>
-      <c s="4" r="B9">
-        <v>2665.0</v>
-      </c>
-      <c s="4" r="C9">
-        <v>3620.0</v>
-      </c>
-      <c s="4" r="D9">
-        <v>993.0</v>
-      </c>
-      <c s="4" r="E9">
-        <v>350.0</v>
-      </c>
-      <c s="4" r="F9">
-        <v>548.0</v>
-      </c>
-      <c s="4" r="G9">
-        <v>253.0</v>
-      </c>
+      <c s="2" r="A9"/>
+      <c s="5" r="B9"/>
+      <c s="5" r="C9"/>
+      <c s="5" r="D9"/>
+      <c s="5" r="E9"/>
+      <c s="5" r="F9"/>
+      <c s="5" r="G9"/>
     </row>
     <row r="10">
       <c s="2" r="A10"/>
@@ -849,21 +841,11 @@
       <c s="5" r="F10"/>
       <c s="5" r="G10"/>
     </row>
-    <row r="11">
-      <c s="2" r="A11"/>
-      <c s="5" r="B11"/>
-      <c s="5" r="C11"/>
-      <c s="5" r="D11"/>
-      <c s="5" r="E11"/>
-      <c s="5" r="F11"/>
-      <c s="5" r="G11"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -881,18 +863,18 @@
   <sheetData>
     <row r="1">
       <c t="s" s="3" r="A1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c t="s" s="3" r="B1">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c t="s" s="3" r="C1">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="3" r="A2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c s="4" r="B2">
         <v>3345.0</v>
@@ -903,7 +885,7 @@
     </row>
     <row r="3">
       <c t="s" s="3" r="A3">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c s="4" r="B3">
         <v>2639.0</v>
@@ -914,7 +896,7 @@
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c s="4" r="B4">
         <v>1075.0</v>
@@ -925,7 +907,7 @@
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c s="4" r="B5">
         <v>26.0</v>
@@ -936,7 +918,7 @@
     </row>
     <row r="6">
       <c t="s" s="3" r="A6">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c s="4" r="B6">
         <v>33.0</v>
@@ -947,7 +929,7 @@
     </row>
     <row r="7">
       <c t="s" s="3" r="A7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c s="4" r="B7">
         <v>2123.0</v>
@@ -958,7 +940,7 @@
     </row>
     <row r="8">
       <c t="s" s="3" r="A8">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c s="4" r="B8">
         <v>3455.0</v>
@@ -969,7 +951,7 @@
     </row>
     <row r="9">
       <c t="s" s="3" r="A9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c s="4" r="B9">
         <v>147.0</v>
@@ -980,7 +962,7 @@
     </row>
     <row r="10">
       <c t="s" s="3" r="A10">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c s="4" r="B10">
         <v>14.0</v>
@@ -991,7 +973,7 @@
     </row>
     <row r="11">
       <c t="s" s="3" r="A11">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c s="4" r="B11">
         <v>164.0</v>
@@ -1002,7 +984,7 @@
     </row>
     <row r="12">
       <c t="s" s="3" r="A12">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c s="4" r="B12">
         <v>42.0</v>
@@ -1013,7 +995,7 @@
     </row>
     <row r="13">
       <c t="s" s="3" r="A13">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c s="4" r="B13">
         <v>5.0</v>
@@ -1024,7 +1006,7 @@
     </row>
     <row r="14">
       <c t="s" s="3" r="A14">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c s="4" r="B14">
         <v>7.0</v>
@@ -1035,7 +1017,7 @@
     </row>
     <row r="15">
       <c t="s" s="3" r="A15">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c s="4" r="B15">
         <v>49.0</v>
@@ -1046,7 +1028,7 @@
     </row>
     <row r="16">
       <c t="s" s="3" r="A16">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c s="4" r="B16">
         <v>3.0</v>
@@ -1057,7 +1039,7 @@
     </row>
     <row r="17">
       <c t="s" s="3" r="A17">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c s="4" r="B17">
         <v>197.0</v>
@@ -1068,7 +1050,7 @@
     </row>
     <row r="18">
       <c t="s" s="3" r="A18">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c s="4" r="B18">
         <v>650.0</v>
@@ -1099,15 +1081,15 @@
   <sheetData>
     <row r="1">
       <c t="s" s="3" r="A1">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c t="s" s="3" r="B1">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="3" r="A2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c s="4" r="B2">
         <v>528.0</v>
@@ -1115,7 +1097,7 @@
     </row>
     <row r="3">
       <c t="s" s="3" r="A3">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c s="4" r="B3">
         <v>180.0</v>
@@ -1123,7 +1105,7 @@
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c s="4" r="B4">
         <v>60.0</v>
@@ -1131,7 +1113,7 @@
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c s="4" r="B5">
         <v>81.0</v>
@@ -1139,7 +1121,7 @@
     </row>
     <row r="6">
       <c t="s" s="3" r="A6">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c s="4" r="B6">
         <v>100.0</v>
@@ -1147,7 +1129,7 @@
     </row>
     <row r="7">
       <c t="s" s="3" r="A7">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c s="4" r="B7">
         <v>1094.0</v>
@@ -1155,7 +1137,7 @@
     </row>
     <row r="8">
       <c t="s" s="3" r="A8">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c s="4" r="B8">
         <v>5949.0</v>
@@ -1163,7 +1145,7 @@
     </row>
     <row r="9">
       <c t="s" s="3" r="A9">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c s="4" r="B9">
         <v>943.0</v>
@@ -1171,7 +1153,7 @@
     </row>
     <row r="10">
       <c t="s" s="3" r="A10">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c s="4" r="B10">
         <v>284.0</v>
@@ -1179,7 +1161,7 @@
     </row>
     <row r="11">
       <c t="s" s="3" r="A11">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c s="4" r="B11">
         <v>111.0</v>
@@ -1187,7 +1169,7 @@
     </row>
     <row r="12">
       <c t="s" s="3" r="A12">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c s="4" r="B12">
         <v>95.0</v>
@@ -1195,7 +1177,7 @@
     </row>
     <row r="13">
       <c t="s" s="3" r="A13">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c s="4" r="B13">
         <v>41.0</v>
@@ -1203,7 +1185,7 @@
     </row>
     <row r="14">
       <c t="s" s="3" r="A14">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c s="4" r="B14">
         <v>14.0</v>
@@ -1211,7 +1193,7 @@
     </row>
     <row r="15">
       <c t="s" s="3" r="A15">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c s="4" r="B15">
         <v>142.0</v>
@@ -1219,7 +1201,7 @@
     </row>
     <row r="16">
       <c t="s" s="3" r="A16">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c s="4" r="B16">
         <v>2141.0</v>
@@ -1250,15 +1232,15 @@
   <sheetData>
     <row r="1">
       <c t="s" s="3" r="A1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" s="3" r="B1">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="3" r="A2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c s="4" r="B2">
         <v>8849.0</v>
@@ -1266,7 +1248,7 @@
     </row>
     <row r="3">
       <c t="s" s="3" r="A3">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c s="4" r="B3">
         <v>2007.0</v>
@@ -1274,7 +1256,7 @@
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c s="4" r="B4">
         <v>3021.0</v>
@@ -1282,7 +1264,7 @@
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c t="str" s="4" r="B5">
         <f>sum(B2:B4)</f>
@@ -1310,15 +1292,15 @@
   <sheetData>
     <row r="1">
       <c t="s" s="3" r="A1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c t="s" s="3" r="B1">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="3" r="A2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c s="4" r="B2">
         <v>383.0</v>
@@ -1326,7 +1308,7 @@
     </row>
     <row r="3">
       <c t="s" s="3" r="A3">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c s="4" r="B3">
         <v>99.0</v>
@@ -1334,7 +1316,7 @@
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c s="4" r="B4">
         <v>18.0</v>
@@ -1342,7 +1324,7 @@
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c s="4" r="B5">
         <v>6.0</v>
@@ -1350,7 +1332,7 @@
     </row>
     <row r="6">
       <c t="s" s="3" r="A6">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c s="4" r="B6">
         <v>52.0</v>
@@ -1358,7 +1340,7 @@
     </row>
     <row r="7">
       <c t="s" s="3" r="A7">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c s="4" r="B7">
         <v>879.0</v>
@@ -1366,7 +1348,7 @@
     </row>
     <row r="8">
       <c t="s" s="3" r="A8">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c s="4" r="B8">
         <v>2.0</v>
@@ -1374,7 +1356,7 @@
     </row>
     <row r="9">
       <c t="s" s="3" r="A9">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c s="4" r="B9">
         <v>52.0</v>
@@ -1382,7 +1364,7 @@
     </row>
     <row r="10">
       <c t="s" s="3" r="A10">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c s="4" r="B10">
         <v>5317.0</v>
@@ -1406,46 +1388,46 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="N1">
         <v>86</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="H1">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="J1">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="K1">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="L1">
-        <v>97</v>
-      </c>
-      <c t="s" s="1" r="M1">
-        <v>98</v>
-      </c>
-      <c t="s" s="1" r="N1">
-        <v>99</v>
       </c>
       <c s="1" r="O1"/>
       <c s="1" r="P1"/>
@@ -1462,7 +1444,7 @@
     </row>
     <row r="2">
       <c t="s" s="3" r="A2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c s="4" r="B2">
         <v>257.0</v>
@@ -1506,7 +1488,7 @@
     </row>
     <row r="3">
       <c t="s" s="3" r="A3">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c s="4" r="B3">
         <v>210.0</v>
@@ -1550,7 +1532,7 @@
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c s="4" r="B4">
         <v>222.0</v>
@@ -1594,7 +1576,7 @@
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c s="4" r="B5">
         <v>218.0</v>
@@ -1638,7 +1620,7 @@
     </row>
     <row r="6">
       <c t="s" s="3" r="A6">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c s="4" r="B6">
         <v>249.0</v>
@@ -1682,7 +1664,7 @@
     </row>
     <row r="7">
       <c t="s" s="3" r="A7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c s="4" r="B7">
         <v>306.0</v>
@@ -1726,7 +1708,7 @@
     </row>
     <row r="8">
       <c t="s" s="3" r="A8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c s="4" r="B8">
         <v>271.0</v>
@@ -1770,7 +1752,7 @@
     </row>
     <row r="9">
       <c t="s" s="3" r="A9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="str" s="4" r="B9">
         <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
